--- a/nielsen_processing/result_transposed_grocermults.xlsx
+++ b/nielsen_processing/result_transposed_grocermults.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abeurope-my.sharepoint.com/personal/mattias_mutso_externi_cz/Documents/Documents/AsahiUK_MMM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abeurope-my.sharepoint.com/personal/mattias_mutso_externi_cz/Documents/Documents/AsahiUK_MMM/nielsen_processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="11_C1CA3FC68F79A8D366075C52F37BD272FAC97142" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F422E992-4C97-4A06-8731-35711538FB5C}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="11_C1CA3FC68F79A8D366075C52F37BD272FAC97142" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{304FE05F-8E52-48C5-A177-ED2C617DAB76}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="265">
   <si>
     <t>SKU</t>
   </si>
@@ -772,6 +772,54 @@
   </si>
   <si>
     <t>c_gmults_promo_heineken5_btl_650_ml_single</t>
+  </si>
+  <si>
+    <t>18^24</t>
+  </si>
+  <si>
+    <t>6&amp;10</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>Peroni Nastro Azzurro Btl 500 Ml single</t>
+  </si>
+  <si>
+    <t>Peroni Nastro Azzurro Btl 620 Ml single</t>
+  </si>
+  <si>
+    <t>Peroni Nastro Azzurro Btl 330 Ml 4 pack</t>
+  </si>
+  <si>
+    <t>Peroni Nastro Azzurro 0.0% Btl 330 Ml 4 pack</t>
+  </si>
+  <si>
+    <t>Peroni Nastro Azzurro Can 440 Ml 4 pack</t>
+  </si>
+  <si>
+    <t>Peroni Nastro Azzurro Btl 250 Ml 4 pack</t>
+  </si>
+  <si>
+    <t>Peroni Nastro Azzurro Can 330 Ml 6 pack</t>
+  </si>
+  <si>
+    <t>Peroni Nastro Azzurro Can 330 Ml 10 pack</t>
+  </si>
+  <si>
+    <t>Peroni Nastro Azzurro Btl 330 Ml 10 pack</t>
+  </si>
+  <si>
+    <t>Peroni Nastro Azzurro Btl 330 Ml 12 pack</t>
+  </si>
+  <si>
+    <t>Peroni Nastro Azzurro 0.0% Btl 330 Ml 12 pack</t>
+  </si>
+  <si>
+    <t>Peroni Nastro Azzurro Btl 330 Ml 18 pack</t>
+  </si>
+  <si>
+    <t>Peroni Nastro Azzurro Btl 330 Ml 24 pack</t>
   </si>
 </sst>
 </file>
@@ -1162,10 +1210,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1188,7 +1237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1202,7 +1251,7 @@
         <v>30610486.91738319</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1216,7 +1265,7 @@
         <v>24321768.85013717</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1230,7 +1279,7 @@
         <v>19762329.89851379</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1244,7 +1293,7 @@
         <v>18182231.911138531</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1258,7 +1307,7 @@
         <v>16050107.00869274</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1272,7 +1321,7 @@
         <v>15173459.193752769</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1286,7 +1335,7 @@
         <v>12275620.09301758</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1300,7 +1349,7 @@
         <v>10787681.469087601</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1314,7 +1363,7 @@
         <v>10319286.981445311</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1328,7 +1377,7 @@
         <v>9515690.8725585938</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1342,7 +1391,7 @@
         <v>8959419.907324791</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1356,7 +1405,7 @@
         <v>8307596.9538018107</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1370,7 +1419,7 @@
         <v>8211216.3855476379</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1384,7 +1433,7 @@
         <v>7415158.3470877409</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1398,7 +1447,7 @@
         <v>7068762.4431152344</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1412,7 +1461,7 @@
         <v>6889654.275069952</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1426,7 +1475,7 @@
         <v>5215679.6325472593</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1440,7 +1489,7 @@
         <v>5138855.316619873</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1468,7 +1517,7 @@
         <v>4481913.1875624657</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1482,7 +1531,7 @@
         <v>4333717.6482132673</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1496,7 +1545,7 @@
         <v>4239139.883933723</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1510,7 +1559,7 @@
         <v>4156137.4772014618</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1524,7 +1573,7 @@
         <v>3794313.2397460942</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1538,7 +1587,7 @@
         <v>3770965.0270080571</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1552,7 +1601,7 @@
         <v>3735482.6119232178</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1566,7 +1615,7 @@
         <v>3339344.4535045619</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1594,7 +1643,7 @@
         <v>3142383.7852035458</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1608,7 +1657,7 @@
         <v>2800693.89107132</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1622,7 +1671,7 @@
         <v>2657950.0332160001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
@@ -1636,7 +1685,7 @@
         <v>2546888</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1650,7 +1699,7 @@
         <v>2538528.5317382808</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
@@ -1664,7 +1713,7 @@
         <v>2529144.224995255</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1678,7 +1727,7 @@
         <v>2388500.771594048</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1706,7 +1755,7 @@
         <v>2037370.4988160131</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1720,7 +1769,7 @@
         <v>2033373.866749167</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
@@ -1734,7 +1783,7 @@
         <v>1945154.5176391599</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1748,7 +1797,7 @@
         <v>1876698.555029392</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1776,7 +1825,7 @@
         <v>1848560.179481983</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1790,7 +1839,7 @@
         <v>1725370.8156215551</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1804,7 +1853,7 @@
         <v>1722599.3150854111</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1818,7 +1867,7 @@
         <v>1467370.4188109341</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1832,7 +1881,7 @@
         <v>1347848.38944912</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -1860,7 +1909,7 @@
         <v>1303527.6018130779</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>52</v>
       </c>
@@ -1874,7 +1923,7 @@
         <v>1255710.787597656</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1888,7 +1937,7 @@
         <v>1254352.9635980129</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -1916,7 +1965,7 @@
         <v>1240681.2027253211</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -1944,7 +1993,7 @@
         <v>1138684.8008306031</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>58</v>
       </c>
@@ -1958,7 +2007,7 @@
         <v>1068920.491317987</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -1972,7 +2021,7 @@
         <v>1001924.958251953</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -1986,7 +2035,7 @@
         <v>970477.20179271698</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -2000,7 +2049,7 @@
         <v>919439.02385234833</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
@@ -2014,7 +2063,7 @@
         <v>853946.93312454224</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -2042,7 +2091,7 @@
         <v>792112.36082714796</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2056,7 +2105,7 @@
         <v>766147.79978084564</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -2070,7 +2119,7 @@
         <v>726870.20922851563</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -2098,7 +2147,7 @@
         <v>699685.46591281891</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2112,7 +2161,7 @@
         <v>691500.14906311035</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -2126,7 +2175,7 @@
         <v>684974.40478029847</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -2140,7 +2189,7 @@
         <v>648106.097178936</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>72</v>
       </c>
@@ -2154,7 +2203,7 @@
         <v>647738.69658851624</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -2168,7 +2217,7 @@
         <v>633135.79556083679</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>74</v>
       </c>
@@ -2182,7 +2231,7 @@
         <v>626136.849609375</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -2196,7 +2245,7 @@
         <v>595361.08455348015</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -2224,7 +2273,7 @@
         <v>585533.35693120956</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>78</v>
       </c>
@@ -2238,7 +2287,7 @@
         <v>558486.38862109184</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -2252,7 +2301,7 @@
         <v>527058.39666748047</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -2266,7 +2315,7 @@
         <v>523159.20517861837</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -2280,7 +2329,7 @@
         <v>450182.43557918072</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -2294,7 +2343,7 @@
         <v>393493.64810061449</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -2308,7 +2357,7 @@
         <v>383300.61165583128</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -2322,7 +2371,7 @@
         <v>350071.39559626579</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -2336,7 +2385,7 @@
         <v>303339.6312841177</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -2350,7 +2399,7 @@
         <v>292033.75</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -2364,7 +2413,7 @@
         <v>280710.05654287338</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -2378,7 +2427,7 @@
         <v>276329.72695863253</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -2392,7 +2441,7 @@
         <v>244568.54534912109</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -2406,7 +2455,7 @@
         <v>240542.7413666248</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -2420,7 +2469,7 @@
         <v>239121.3506202698</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -2434,7 +2483,7 @@
         <v>230258.81501340869</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -2448,7 +2497,7 @@
         <v>222051.7199805975</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -2462,7 +2511,7 @@
         <v>221879.89926147461</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -2476,7 +2525,7 @@
         <v>217772.60053277019</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -2490,7 +2539,7 @@
         <v>169973.75988769531</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -2504,7 +2553,7 @@
         <v>161478.89942964909</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -2518,7 +2567,7 @@
         <v>151398.72018313411</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>99</v>
       </c>
@@ -2532,7 +2581,7 @@
         <v>110362.23132514951</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -2574,7 +2623,7 @@
         <v>80451.360004901886</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -2588,7 +2637,7 @@
         <v>69866.610565185547</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -2616,7 +2665,7 @@
         <v>62984.295013427727</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -2630,7 +2679,7 @@
         <v>43087.439910888672</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -2644,7 +2693,7 @@
         <v>40890.860213875771</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -2658,7 +2707,7 @@
         <v>40375.500251978643</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -2686,7 +2735,7 @@
         <v>32980.859977722168</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -2700,7 +2749,7 @@
         <v>19370.5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -2714,7 +2763,7 @@
         <v>18525.953055083752</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -2728,7 +2777,7 @@
         <v>12928.739881038669</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -2742,7 +2791,7 @@
         <v>9130.7700622081757</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -2756,7 +2805,7 @@
         <v>8247.0300137400627</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -2770,7 +2819,7 @@
         <v>6526.4100629091263</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -2784,7 +2833,7 @@
         <v>5235.125</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -2798,7 +2847,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -2812,7 +2861,7 @@
         <v>2237.4000095129009</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -2826,7 +2875,7 @@
         <v>1782.9900245666499</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -2840,7 +2889,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -2854,7 +2903,7 @@
         <v>886.38000220060349</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -2868,7 +2917,7 @@
         <v>706.80002111196518</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -2882,7 +2931,7 @@
         <v>571.88999927043915</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -2896,7 +2945,7 @@
         <v>479.81999716162682</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -2910,7 +2959,7 @@
         <v>462.00000095367432</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -2924,7 +2973,7 @@
         <v>445.49999755620962</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -2938,7 +2987,7 @@
         <v>347.15999695658678</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -2952,7 +3001,7 @@
         <v>325.59999513626099</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -2966,7 +3015,7 @@
         <v>251.13000386953351</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -2980,7 +3029,7 @@
         <v>206.3599956035614</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -3008,7 +3057,7 @@
         <v>111.99900007247921</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -3022,7 +3071,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>135</v>
       </c>
@@ -3036,7 +3085,7 @@
         <v>85.800002098083496</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>136</v>
       </c>
@@ -3050,7 +3099,7 @@
         <v>78.540001809597015</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -3064,7 +3113,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -3078,7 +3127,7 @@
         <v>52.800001382827759</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -3106,7 +3155,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -3120,7 +3169,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -3134,7 +3183,7 @@
         <v>40.260000109672553</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -3148,7 +3197,7 @@
         <v>39.600000381469727</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -3162,7 +3211,7 @@
         <v>38.94100022315979</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>145</v>
       </c>
@@ -3176,7 +3225,7 @@
         <v>36.299999475479133</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -3204,7 +3253,7 @@
         <v>31.679999351501461</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -3218,7 +3267,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -3232,7 +3281,7 @@
         <v>26.400001049041752</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -3260,7 +3309,7 @@
         <v>19.170000076293949</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -3274,7 +3323,7 @@
         <v>19.140000283718109</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -3288,7 +3337,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>154</v>
       </c>
@@ -3302,7 +3351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>155</v>
       </c>
@@ -3316,7 +3365,7 @@
         <v>12.870000123977659</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>156</v>
       </c>
@@ -3330,7 +3379,7 @@
         <v>12.78000068664551</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>157</v>
       </c>
@@ -3344,7 +3393,7 @@
         <v>10.559999942779539</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -3358,7 +3407,7 @@
         <v>8.8000001907348633</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>159</v>
       </c>
@@ -3372,7 +3421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>160</v>
       </c>
@@ -3386,7 +3435,7 @@
         <v>7.9200000762939453</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -3400,7 +3449,7 @@
         <v>7.2599998414516449</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>162</v>
       </c>
@@ -3428,7 +3477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>164</v>
       </c>
@@ -3442,7 +3491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>165</v>
       </c>
@@ -3456,7 +3505,7 @@
         <v>4.9699998497962952</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>166</v>
       </c>
@@ -3470,7 +3519,7 @@
         <v>2.2720000743865971</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>167</v>
       </c>
@@ -3484,7 +3533,7 @@
         <v>1.9800000190734861</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -3498,7 +3547,7 @@
         <v>1.860000014305115</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>169</v>
       </c>
@@ -3512,7 +3561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>170</v>
       </c>
@@ -3526,7 +3575,7 @@
         <v>0.99000003933906555</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>171</v>
       </c>
@@ -3540,7 +3589,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>172</v>
       </c>
@@ -3554,7 +3603,7 @@
         <v>0.33000001311302191</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>173</v>
       </c>
@@ -3582,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>175</v>
       </c>
@@ -3596,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>176</v>
       </c>
@@ -3624,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>178</v>
       </c>
@@ -3638,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>179</v>
       </c>
@@ -3652,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>180</v>
       </c>
@@ -3666,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>181</v>
       </c>
@@ -3680,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>182</v>
       </c>
@@ -3694,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>183</v>
       </c>
@@ -3708,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>184</v>
       </c>
@@ -3722,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>185</v>
       </c>
@@ -3736,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>186</v>
       </c>
@@ -3750,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>187</v>
       </c>
@@ -3764,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>188</v>
       </c>
@@ -3778,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>189</v>
       </c>
@@ -3792,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>190</v>
       </c>
@@ -3806,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>191</v>
       </c>
@@ -3820,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>192</v>
       </c>
@@ -3834,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>193</v>
       </c>
@@ -3848,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>194</v>
       </c>
@@ -3862,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>195</v>
       </c>
@@ -3876,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>196</v>
       </c>
@@ -3890,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>197</v>
       </c>
@@ -3904,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>198</v>
       </c>
@@ -3918,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>199</v>
       </c>
@@ -3932,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>200</v>
       </c>
@@ -3946,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>201</v>
       </c>
@@ -3960,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>202</v>
       </c>
@@ -3988,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>204</v>
       </c>
@@ -4002,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>205</v>
       </c>
@@ -4016,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>206</v>
       </c>
@@ -4030,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>207</v>
       </c>
@@ -4044,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>208</v>
       </c>
@@ -4058,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>209</v>
       </c>
@@ -4072,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>210</v>
       </c>
@@ -4100,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>212</v>
       </c>
@@ -4114,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>213</v>
       </c>
@@ -4128,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>214</v>
       </c>
@@ -4142,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>215</v>
       </c>
@@ -4156,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>216</v>
       </c>
@@ -4170,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>217</v>
       </c>
@@ -4198,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>219</v>
       </c>
@@ -4212,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>220</v>
       </c>
@@ -4226,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>221</v>
       </c>
@@ -4254,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>223</v>
       </c>
@@ -4268,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>224</v>
       </c>
@@ -4282,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>225</v>
       </c>
@@ -4310,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>227</v>
       </c>
@@ -4324,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>228</v>
       </c>
@@ -4338,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>229</v>
       </c>
@@ -4352,7 +4401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>230</v>
       </c>
@@ -4380,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>232</v>
       </c>
@@ -4395,7 +4444,39 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D230" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D230" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="c_sku_Birra Moretti Btl 500 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Birra Moretti Can 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Budweiser Btl 300 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Budweiser Budvar Can 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Corona Btl 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Corona Can 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Corona Can 355 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Corona Ligera Btl 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Estrella Damm Barcelona Can 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Estrella Damm Daura/gluten Free Can 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Estrella Galicia Btl 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Heineken (5%) Can 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Heineken 0.0 Alcohol Free Can 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Heineken Silver Can 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 250 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Can 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro/gluten Free Btl 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_San Miguel Btl 500 Ml 6 pack_Volume"/>
+        <filter val="c_sku_San Miguel Can 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_San Miguel Fresca Btl 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_San Miguel Selecta Btl 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_San Miguel/gluten Free Btl 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Stella Artois Btl 284 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Stella Artois Btl 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Stella Artois Can 440 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Stella Artois Unfiltered Can 330 Ml 6 pack_Volume"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4404,8 +4485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C35DD2-B702-4540-B067-EAE5F36DDDBD}">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I3"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A105" activeCellId="12" sqref="A21 A26 A34 A36 A49 A62 A65 A72 A81 A89 A96 A103 A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5946,14 +6027,101 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CAF1D0-AC1C-4F60-A6D0-6026A0905B5B}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="56.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/nielsen_processing/result_transposed_grocermults.xlsx
+++ b/nielsen_processing/result_transposed_grocermults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abeurope-my.sharepoint.com/personal/mattias_mutso_externi_cz/Documents/Documents/AsahiUK_MMM/nielsen_processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="11_C1CA3FC68F79A8D366075C52F37BD272FAC97142" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{304FE05F-8E52-48C5-A177-ED2C617DAB76}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="11_C1CA3FC68F79A8D366075C52F37BD272FAC97142" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E91F411-A2A8-4286-9EFF-BF8A15A998DF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="30984" windowHeight="16944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiples" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="266">
   <si>
     <t>SKU</t>
   </si>
@@ -820,6 +820,9 @@
   </si>
   <si>
     <t>Peroni Nastro Azzurro Btl 330 Ml 24 pack</t>
+  </si>
+  <si>
+    <t>VOLUME</t>
   </si>
 </sst>
 </file>
@@ -895,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -905,6 +908,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1213,17 +1217,17 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122:C122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.26953125" customWidth="1"/>
-    <col min="2" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.21875" customWidth="1"/>
+    <col min="2" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1251,7 +1255,7 @@
         <v>30610486.91738319</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1265,7 +1269,7 @@
         <v>24321768.85013717</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1279,7 +1283,7 @@
         <v>19762329.89851379</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1297,7 @@
         <v>18182231.911138531</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1307,7 +1311,7 @@
         <v>16050107.00869274</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1321,7 +1325,7 @@
         <v>15173459.193752769</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1335,7 +1339,7 @@
         <v>12275620.09301758</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1349,7 +1353,7 @@
         <v>10787681.469087601</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1363,7 +1367,7 @@
         <v>10319286.981445311</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1377,7 +1381,7 @@
         <v>9515690.8725585938</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1391,7 +1395,7 @@
         <v>8959419.907324791</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1405,7 +1409,7 @@
         <v>8307596.9538018107</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1419,7 +1423,7 @@
         <v>8211216.3855476379</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1433,7 +1437,7 @@
         <v>7415158.3470877409</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1447,7 +1451,7 @@
         <v>7068762.4431152344</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1461,7 +1465,7 @@
         <v>6889654.275069952</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1475,7 +1479,7 @@
         <v>5215679.6325472593</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1489,7 +1493,7 @@
         <v>5138855.316619873</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1503,7 +1507,7 @@
         <v>5056751.6929312348</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1517,7 +1521,7 @@
         <v>4481913.1875624657</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1531,7 +1535,7 @@
         <v>4333717.6482132673</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1545,7 +1549,7 @@
         <v>4239139.883933723</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1559,7 +1563,7 @@
         <v>4156137.4772014618</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1573,7 +1577,7 @@
         <v>3794313.2397460942</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1587,7 +1591,7 @@
         <v>3770965.0270080571</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1601,7 +1605,7 @@
         <v>3735482.6119232178</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1615,7 +1619,7 @@
         <v>3339344.4535045619</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1629,7 +1633,7 @@
         <v>3308872.8302001948</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1643,7 +1647,7 @@
         <v>3142383.7852035458</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1657,7 +1661,7 @@
         <v>2800693.89107132</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1671,7 +1675,7 @@
         <v>2657950.0332160001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
@@ -1685,7 +1689,7 @@
         <v>2546888</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1699,7 +1703,7 @@
         <v>2538528.5317382808</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
@@ -1713,7 +1717,7 @@
         <v>2529144.224995255</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1727,7 +1731,7 @@
         <v>2388500.771594048</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1741,7 +1745,7 @@
         <v>2372097.3932216172</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1755,7 +1759,7 @@
         <v>2037370.4988160131</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1769,7 +1773,7 @@
         <v>2033373.866749167</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
@@ -1783,7 +1787,7 @@
         <v>1945154.5176391599</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1797,7 +1801,7 @@
         <v>1876698.555029392</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1811,7 +1815,7 @@
         <v>1854008.2328748701</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1825,7 +1829,7 @@
         <v>1848560.179481983</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1839,7 +1843,7 @@
         <v>1725370.8156215551</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1853,7 +1857,7 @@
         <v>1722599.3150854111</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1867,7 +1871,7 @@
         <v>1467370.4188109341</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1881,7 +1885,7 @@
         <v>1347848.38944912</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -1895,7 +1899,7 @@
         <v>1336723.5013949871</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -1909,7 +1913,7 @@
         <v>1303527.6018130779</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>52</v>
       </c>
@@ -1923,7 +1927,7 @@
         <v>1255710.787597656</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1937,7 +1941,7 @@
         <v>1254352.9635980129</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -1951,7 +1955,7 @@
         <v>1254163.233448029</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -1965,7 +1969,7 @@
         <v>1240681.2027253211</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -1979,7 +1983,7 @@
         <v>1179302.106445313</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>57</v>
       </c>
@@ -1993,7 +1997,7 @@
         <v>1138684.8008306031</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>58</v>
       </c>
@@ -2007,7 +2011,7 @@
         <v>1068920.491317987</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -2021,7 +2025,7 @@
         <v>1001924.958251953</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -2035,7 +2039,7 @@
         <v>970477.20179271698</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -2049,7 +2053,7 @@
         <v>919439.02385234833</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
@@ -2063,7 +2067,7 @@
         <v>853946.93312454224</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -2077,7 +2081,7 @@
         <v>851021.33727359772</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -2091,7 +2095,7 @@
         <v>792112.36082714796</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2105,7 +2109,7 @@
         <v>766147.79978084564</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -2119,7 +2123,7 @@
         <v>726870.20922851563</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -2133,7 +2137,7 @@
         <v>716922.4206931591</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -2147,7 +2151,7 @@
         <v>699685.46591281891</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2161,7 +2165,7 @@
         <v>691500.14906311035</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -2175,7 +2179,7 @@
         <v>684974.40478029847</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -2189,7 +2193,7 @@
         <v>648106.097178936</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>72</v>
       </c>
@@ -2203,7 +2207,7 @@
         <v>647738.69658851624</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -2217,7 +2221,7 @@
         <v>633135.79556083679</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>74</v>
       </c>
@@ -2231,7 +2235,7 @@
         <v>626136.849609375</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -2245,7 +2249,7 @@
         <v>595361.08455348015</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -2259,7 +2263,7 @@
         <v>587769.26831054688</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -2273,7 +2277,7 @@
         <v>585533.35693120956</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>78</v>
       </c>
@@ -2287,7 +2291,7 @@
         <v>558486.38862109184</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -2301,7 +2305,7 @@
         <v>527058.39666748047</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -2315,7 +2319,7 @@
         <v>523159.20517861837</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -2329,7 +2333,7 @@
         <v>450182.43557918072</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -2343,7 +2347,7 @@
         <v>393493.64810061449</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -2357,7 +2361,7 @@
         <v>383300.61165583128</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -2371,7 +2375,7 @@
         <v>350071.39559626579</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -2385,7 +2389,7 @@
         <v>303339.6312841177</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -2399,7 +2403,7 @@
         <v>292033.75</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -2413,7 +2417,7 @@
         <v>280710.05654287338</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -2427,7 +2431,7 @@
         <v>276329.72695863253</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -2441,7 +2445,7 @@
         <v>244568.54534912109</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -2455,7 +2459,7 @@
         <v>240542.7413666248</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -2469,7 +2473,7 @@
         <v>239121.3506202698</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -2483,7 +2487,7 @@
         <v>230258.81501340869</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -2497,7 +2501,7 @@
         <v>222051.7199805975</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -2511,7 +2515,7 @@
         <v>221879.89926147461</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -2525,7 +2529,7 @@
         <v>217772.60053277019</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -2539,7 +2543,7 @@
         <v>169973.75988769531</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -2553,7 +2557,7 @@
         <v>161478.89942964909</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -2567,7 +2571,7 @@
         <v>151398.72018313411</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>99</v>
       </c>
@@ -2581,7 +2585,7 @@
         <v>110362.23132514951</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -2595,7 +2599,7 @@
         <v>107370.4493352175</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -2609,7 +2613,7 @@
         <v>89543.520061016083</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -2623,7 +2627,7 @@
         <v>80451.360004901886</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -2637,7 +2641,7 @@
         <v>69866.610565185547</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -2651,7 +2655,7 @@
         <v>66195.75</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -2665,7 +2669,7 @@
         <v>62984.295013427727</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -2679,7 +2683,7 @@
         <v>43087.439910888672</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -2693,7 +2697,7 @@
         <v>40890.860213875771</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -2707,7 +2711,7 @@
         <v>40375.500251978643</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -2721,7 +2725,7 @@
         <v>34057.319981455803</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -2735,7 +2739,7 @@
         <v>32980.859977722168</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -2749,7 +2753,7 @@
         <v>19370.5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -2763,7 +2767,7 @@
         <v>18525.953055083752</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -2777,7 +2781,7 @@
         <v>12928.739881038669</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -2791,7 +2795,7 @@
         <v>9130.7700622081757</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -2805,7 +2809,7 @@
         <v>8247.0300137400627</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -2819,7 +2823,7 @@
         <v>6526.4100629091263</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -2833,7 +2837,7 @@
         <v>5235.125</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -2847,7 +2851,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -2861,7 +2865,7 @@
         <v>2237.4000095129009</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -2875,7 +2879,7 @@
         <v>1782.9900245666499</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -2889,7 +2893,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -2903,7 +2907,7 @@
         <v>886.38000220060349</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -2917,7 +2921,7 @@
         <v>706.80002111196518</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -2931,7 +2935,7 @@
         <v>571.88999927043915</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -2945,7 +2949,7 @@
         <v>479.81999716162682</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -2959,7 +2963,7 @@
         <v>462.00000095367432</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -2973,7 +2977,7 @@
         <v>445.49999755620962</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -2987,7 +2991,7 @@
         <v>347.15999695658678</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -3001,7 +3005,7 @@
         <v>325.59999513626099</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -3015,7 +3019,7 @@
         <v>251.13000386953351</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -3029,7 +3033,7 @@
         <v>206.3599956035614</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -3043,7 +3047,7 @@
         <v>162.71200013160711</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -3057,7 +3061,7 @@
         <v>111.99900007247921</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -3071,7 +3075,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>135</v>
       </c>
@@ -3085,7 +3089,7 @@
         <v>85.800002098083496</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>136</v>
       </c>
@@ -3099,7 +3103,7 @@
         <v>78.540001809597015</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -3113,7 +3117,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -3127,7 +3131,7 @@
         <v>52.800001382827759</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -3141,7 +3145,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -3155,7 +3159,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -3169,7 +3173,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -3183,7 +3187,7 @@
         <v>40.260000109672553</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -3197,7 +3201,7 @@
         <v>39.600000381469727</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -3211,7 +3215,7 @@
         <v>38.94100022315979</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>145</v>
       </c>
@@ -3225,7 +3229,7 @@
         <v>36.299999475479133</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -3239,7 +3243,7 @@
         <v>36.070001006126397</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -3253,7 +3257,7 @@
         <v>31.679999351501461</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -3267,7 +3271,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -3281,7 +3285,7 @@
         <v>26.400001049041752</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -3295,7 +3299,7 @@
         <v>26.399999380111691</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>151</v>
       </c>
@@ -3309,7 +3313,7 @@
         <v>19.170000076293949</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -3323,7 +3327,7 @@
         <v>19.140000283718109</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -3337,7 +3341,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>154</v>
       </c>
@@ -3351,7 +3355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>155</v>
       </c>
@@ -3365,7 +3369,7 @@
         <v>12.870000123977659</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>156</v>
       </c>
@@ -3379,7 +3383,7 @@
         <v>12.78000068664551</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>157</v>
       </c>
@@ -3393,7 +3397,7 @@
         <v>10.559999942779539</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -3407,7 +3411,7 @@
         <v>8.8000001907348633</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>159</v>
       </c>
@@ -3421,7 +3425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>160</v>
       </c>
@@ -3435,7 +3439,7 @@
         <v>7.9200000762939453</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -3449,7 +3453,7 @@
         <v>7.2599998414516449</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>162</v>
       </c>
@@ -3463,7 +3467,7 @@
         <v>7.1999998092651367</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>163</v>
       </c>
@@ -3477,7 +3481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>164</v>
       </c>
@@ -3491,7 +3495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>165</v>
       </c>
@@ -3505,7 +3509,7 @@
         <v>4.9699998497962952</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>166</v>
       </c>
@@ -3519,7 +3523,7 @@
         <v>2.2720000743865971</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>167</v>
       </c>
@@ -3533,7 +3537,7 @@
         <v>1.9800000190734861</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -3547,7 +3551,7 @@
         <v>1.860000014305115</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>169</v>
       </c>
@@ -3561,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>170</v>
       </c>
@@ -3575,7 +3579,7 @@
         <v>0.99000003933906555</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>171</v>
       </c>
@@ -3589,7 +3593,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>172</v>
       </c>
@@ -3603,7 +3607,7 @@
         <v>0.33000001311302191</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>173</v>
       </c>
@@ -3617,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>174</v>
       </c>
@@ -3631,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>175</v>
       </c>
@@ -3645,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>176</v>
       </c>
@@ -3659,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>177</v>
       </c>
@@ -3673,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>178</v>
       </c>
@@ -3687,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>179</v>
       </c>
@@ -3701,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>180</v>
       </c>
@@ -3715,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>181</v>
       </c>
@@ -3729,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>182</v>
       </c>
@@ -3743,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>183</v>
       </c>
@@ -3757,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>184</v>
       </c>
@@ -3771,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>185</v>
       </c>
@@ -3785,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>186</v>
       </c>
@@ -3799,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>187</v>
       </c>
@@ -3813,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>188</v>
       </c>
@@ -3827,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>189</v>
       </c>
@@ -3841,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>190</v>
       </c>
@@ -3855,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>191</v>
       </c>
@@ -3869,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>192</v>
       </c>
@@ -3883,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>193</v>
       </c>
@@ -3897,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>194</v>
       </c>
@@ -3911,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>195</v>
       </c>
@@ -3925,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>196</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>197</v>
       </c>
@@ -3953,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>198</v>
       </c>
@@ -3967,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>199</v>
       </c>
@@ -3981,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>200</v>
       </c>
@@ -3995,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>201</v>
       </c>
@@ -4009,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>202</v>
       </c>
@@ -4023,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>203</v>
       </c>
@@ -4037,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>204</v>
       </c>
@@ -4051,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>205</v>
       </c>
@@ -4065,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>206</v>
       </c>
@@ -4079,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>207</v>
       </c>
@@ -4093,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>208</v>
       </c>
@@ -4107,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>209</v>
       </c>
@@ -4121,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>210</v>
       </c>
@@ -4135,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>211</v>
       </c>
@@ -4149,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>212</v>
       </c>
@@ -4163,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>213</v>
       </c>
@@ -4177,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>214</v>
       </c>
@@ -4191,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>215</v>
       </c>
@@ -4205,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>216</v>
       </c>
@@ -4219,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>217</v>
       </c>
@@ -4233,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>218</v>
       </c>
@@ -4247,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>219</v>
       </c>
@@ -4261,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>220</v>
       </c>
@@ -4275,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>221</v>
       </c>
@@ -4289,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>222</v>
       </c>
@@ -4303,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>223</v>
       </c>
@@ -4317,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>224</v>
       </c>
@@ -4331,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>225</v>
       </c>
@@ -4345,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>226</v>
       </c>
@@ -4359,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>227</v>
       </c>
@@ -4373,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>228</v>
       </c>
@@ -4387,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>229</v>
       </c>
@@ -4401,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>230</v>
       </c>
@@ -4415,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>231</v>
       </c>
@@ -4429,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>232</v>
       </c>
@@ -4447,33 +4451,41 @@
   <autoFilter ref="A1:D230" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="c_sku_Birra Moretti Btl 500 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Birra Moretti Can 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Budweiser Btl 300 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Budweiser Budvar Can 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Corona Btl 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Corona Can 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Corona Can 355 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Corona Ligera Btl 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Estrella Damm Barcelona Can 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Estrella Damm Daura/gluten Free Can 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Estrella Galicia Btl 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Heineken (5%) Can 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Heineken 0.0 Alcohol Free Can 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Heineken Silver Can 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Peroni Gran Riserva Doppio Malto Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Gran Riserva Doppio Malto Btl 500 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Gran Riserva Puro Malto Btl 500 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Gran Riserva Rossa Btl 500 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Libera 0.0% Btl 330 Ml 12 pack_Volume"/>
+        <filter val="c_sku_Peroni Libera 0.0% Btl 330 Ml 4 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro 0.0% Btl 330 Ml 12 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro 0.0% Btl 330 Ml 4 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro 0.0% Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro 0.0% Can 330 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 250 Ml 4 pack_Volume"/>
         <filter val="c_sku_Peroni Nastro Azzurro Btl 250 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 10 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 12 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 18 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 20 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 24 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 4 pack_Volume"/>
         <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 500 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 620 Ml 12 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 620 Ml 3 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 620 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 660 Ml 3 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Can 330 Ml 10 pack_Volume"/>
         <filter val="c_sku_Peroni Nastro Azzurro Can 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Can 440 Ml 4 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Stile Capri Btl 330 Ml 10 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Stile Capri Btl 330 Ml 3 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Stile Capri Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro/gluten Free Btl 330 Ml 12 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro/gluten Free Btl 330 Ml 4 pack_Volume"/>
         <filter val="c_sku_Peroni Nastro Azzurro/gluten Free Btl 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_San Miguel Btl 500 Ml 6 pack_Volume"/>
-        <filter val="c_sku_San Miguel Can 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_San Miguel Fresca Btl 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_San Miguel Selecta Btl 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_San Miguel/gluten Free Btl 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Stella Artois Btl 284 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Stella Artois Btl 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Stella Artois Can 440 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Stella Artois Unfiltered Can 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro/gluten Free Btl 620 Ml single_Volume"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4483,21 +4495,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C35DD2-B702-4540-B067-EAE5F36DDDBD}">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A105" activeCellId="12" sqref="A21 A26 A34 A36 A49 A62 A65 A72 A81 A89 A96 A103 A105"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34:K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.36328125" customWidth="1"/>
-    <col min="7" max="7" width="54.90625" customWidth="1"/>
-    <col min="8" max="8" width="41.81640625" customWidth="1"/>
-    <col min="9" max="9" width="33" customWidth="1"/>
+    <col min="1" max="1" width="54.33203125" customWidth="1"/>
+    <col min="7" max="7" width="54.88671875" customWidth="1"/>
+    <col min="8" max="11" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>233</v>
       </c>
@@ -4520,7 +4531,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -4543,7 +4554,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -4566,7 +4577,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -4589,7 +4600,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4606,7 +4617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -4623,7 +4634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -4640,7 +4651,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
@@ -4657,7 +4668,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
@@ -4674,7 +4685,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -4691,7 +4702,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -4708,7 +4719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -4725,17 +4736,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>234</v>
       </c>
@@ -4752,7 +4763,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -4769,7 +4780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -4786,7 +4797,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -4803,7 +4814,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -4820,7 +4831,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -4837,7 +4848,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
@@ -4854,7 +4865,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -4871,7 +4882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -4888,7 +4899,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -4905,7 +4916,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -4922,7 +4933,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
@@ -4939,7 +4950,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -4956,7 +4967,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -4973,7 +4984,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -4990,7 +5001,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -5007,7 +5018,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -5024,7 +5035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -5041,7 +5052,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -5058,7 +5069,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>72</v>
       </c>
@@ -5074,8 +5085,17 @@
       <c r="G34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -5091,8 +5111,20 @@
       <c r="G35" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35" t="s">
+        <v>265</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
+        <v>337419.38172912598</v>
+      </c>
+      <c r="K35" s="7">
+        <v>853946.93312454224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>74</v>
       </c>
@@ -5109,7 +5141,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -5126,7 +5158,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>124</v>
       </c>
@@ -5143,7 +5175,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>126</v>
       </c>
@@ -5160,17 +5192,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>235</v>
       </c>
@@ -5187,7 +5219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -5204,7 +5236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -5221,7 +5253,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -5238,7 +5270,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -5255,7 +5287,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -5272,7 +5304,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -5289,7 +5321,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>57</v>
       </c>
@@ -5306,7 +5338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -5323,7 +5355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -5340,7 +5372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -5357,17 +5389,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G53" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G54" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>237</v>
       </c>
@@ -5384,7 +5416,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -5401,7 +5433,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -5418,7 +5450,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -5435,7 +5467,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -5452,7 +5484,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>43</v>
       </c>
@@ -5469,7 +5501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>54</v>
       </c>
@@ -5486,7 +5518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>58</v>
       </c>
@@ -5503,7 +5535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -5520,7 +5552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -5537,7 +5569,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>78</v>
       </c>
@@ -5554,7 +5586,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -5571,7 +5603,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>238</v>
       </c>
@@ -5585,7 +5617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -5599,7 +5631,7 @@
         <v>18182231.911138531</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -5613,7 +5645,7 @@
         <v>8211216.3855476379</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>17</v>
       </c>
@@ -5627,7 +5659,7 @@
         <v>7415158.3470877409</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -5641,7 +5673,7 @@
         <v>7068762.4431152344</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -5655,7 +5687,7 @@
         <v>3794313.2397460942</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -5669,7 +5701,7 @@
         <v>3735482.6119232178</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -5683,7 +5715,7 @@
         <v>2372097.3932216172</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -5697,7 +5729,7 @@
         <v>2033373.866749167</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -5711,7 +5743,7 @@
         <v>1722599.3150854111</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>50</v>
       </c>
@@ -5725,7 +5757,7 @@
         <v>1336723.5013949871</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>61</v>
       </c>
@@ -5739,7 +5771,7 @@
         <v>919439.02385234833</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>62</v>
       </c>
@@ -5753,7 +5785,7 @@
         <v>853946.93312454224</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>63</v>
       </c>
@@ -5767,7 +5799,7 @@
         <v>851021.33727359772</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>236</v>
       </c>
@@ -5781,7 +5813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -5795,7 +5827,7 @@
         <v>30610486.91738319</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -5809,7 +5841,7 @@
         <v>12275620.09301758</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -5823,7 +5855,7 @@
         <v>10787681.469087601</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>20</v>
       </c>
@@ -5837,7 +5869,7 @@
         <v>5215679.6325472593</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>28</v>
       </c>
@@ -5851,7 +5883,7 @@
         <v>3770965.0270080571</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>31</v>
       </c>
@@ -5865,7 +5897,7 @@
         <v>3308872.8302001948</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>144</v>
       </c>
@@ -5879,7 +5911,7 @@
         <v>38.94100022315979</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>239</v>
       </c>
@@ -5893,7 +5925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>99</v>
       </c>
@@ -5907,7 +5939,7 @@
         <v>110362.23132514951</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>152</v>
       </c>
@@ -5921,7 +5953,7 @@
         <v>19.140000283718109</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>241</v>
       </c>
@@ -5935,7 +5967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -5949,7 +5981,7 @@
         <v>4481913.1875624657</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>47</v>
       </c>
@@ -5963,7 +5995,7 @@
         <v>1722599.3150854111</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>52</v>
       </c>
@@ -5977,7 +6009,7 @@
         <v>1255710.787597656</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>60</v>
       </c>
@@ -5991,7 +6023,7 @@
         <v>970477.20179271698</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>62</v>
       </c>
@@ -6005,7 +6037,7 @@
         <v>853946.93312454224</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>76</v>
       </c>
@@ -6029,31 +6061,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CAF1D0-AC1C-4F60-A6D0-6026A0905B5B}">
   <dimension ref="A2:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.6328125" customWidth="1"/>
+    <col min="1" max="1" width="56.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>255</v>
       </c>
@@ -6061,17 +6093,17 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>258</v>
       </c>
@@ -6079,7 +6111,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -6087,17 +6119,17 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>262</v>
       </c>
@@ -6105,7 +6137,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>263</v>
       </c>
@@ -6113,7 +6145,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>264</v>
       </c>

--- a/nielsen_processing/result_transposed_grocermults.xlsx
+++ b/nielsen_processing/result_transposed_grocermults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abeurope-my.sharepoint.com/personal/mattias_mutso_externi_cz/Documents/Documents/AsahiUK_MMM/nielsen_processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="11_C1CA3FC68F79A8D366075C52F37BD272FAC97142" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E91F411-A2A8-4286-9EFF-BF8A15A998DF}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="11_C1CA3FC68F79A8D366075C52F37BD272FAC97142" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0679D063-0DF2-4CE7-BBFD-15C5935E6D2F}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="30984" windowHeight="16944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="30984" windowHeight="16944" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiples" sheetId="1" r:id="rId1"/>
@@ -1217,8 +1217,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122:C122"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1423,7 +1423,7 @@
         <v>8211216.3855476379</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>6889654.275069952</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>2657950.0332160001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>2538528.5317382808</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>2033373.866749167</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>1945154.5176391599</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>1303527.6018130779</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>52</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>1179302.106445313</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>57</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>1138684.8008306031</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>58</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>919439.02385234833</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>648106.097178936</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>72</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>633135.79556083679</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>74</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>626136.849609375</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>585533.35693120956</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>78</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>523159.20517861837</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>383300.61165583128</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>276329.72695863253</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>244568.54534912109</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>221879.89926147461</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>151398.72018313411</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>99</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>43087.439910888672</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>6526.4100629091263</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>5235.125</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>2237.4000095129009</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>1782.9900245666499</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>706.80002111196518</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>445.49999755620962</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>7.1999998092651367</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>163</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>2.2720000743865971</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>167</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>1.9800000190734861</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>174</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>180</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>205</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>208</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>213</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>215</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>221</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>226</v>
       </c>
@@ -4451,41 +4451,9 @@
   <autoFilter ref="A1:D230" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="c_sku_Peroni Gran Riserva Doppio Malto Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Gran Riserva Doppio Malto Btl 500 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Gran Riserva Puro Malto Btl 500 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Gran Riserva Rossa Btl 500 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Libera 0.0% Btl 330 Ml 12 pack_Volume"/>
-        <filter val="c_sku_Peroni Libera 0.0% Btl 330 Ml 4 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro 0.0% Btl 330 Ml 12 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro 0.0% Btl 330 Ml 4 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro 0.0% Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro 0.0% Can 330 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 250 Ml 4 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 250 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 10 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 12 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 18 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 20 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 24 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 4 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 500 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 620 Ml 12 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 620 Ml 3 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 620 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 660 Ml 3 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Can 330 Ml 10 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Can 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Can 440 Ml 4 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Stile Capri Btl 330 Ml 10 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Stile Capri Btl 330 Ml 3 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Stile Capri Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro/gluten Free Btl 330 Ml 12 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro/gluten Free Btl 330 Ml 4 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro/gluten Free Btl 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro/gluten Free Btl 620 Ml single_Volume"/>
+        <filter val="c_sku_Cruzcampo Btl 660 Ml single_Volume"/>
+        <filter val="c_sku_Cruzcampo Can 440 Ml 10 pack_Volume"/>
+        <filter val="c_sku_Cruzcampo Can 440 Ml 4 pack_Volume"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4497,8 +4465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C35DD2-B702-4540-B067-EAE5F36DDDBD}">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34:K35"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
